--- a/20160616-eat_duluth/builds/development/data/maindata.xlsx
+++ b/20160616-eat_duluth/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2240" yWindow="460" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="places" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="234">
   <si>
     <t>name</t>
   </si>
@@ -704,13 +704,31 @@
   </si>
   <si>
     <t>Source: Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>places</t>
+  </si>
+  <si>
+    <t>Duluth-area restaurant data</t>
+  </si>
+  <si>
+    <t>Star Tribune analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -739,6 +757,12 @@
       <sz val="10"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -760,13 +784,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,7 +1205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" ht="16">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1239,7 +1264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="16">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1298,7 +1323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="16">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="16">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1416,7 +1441,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="16">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1475,7 +1500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="16">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1534,7 +1559,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="16">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1593,7 +1618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="16">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -1652,7 +1677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="16">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1711,7 +1736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="16">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1770,7 +1795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="16">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -1829,7 +1854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" ht="16">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
@@ -1888,7 +1913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="16">
       <c r="A14" s="1" t="s">
         <v>91</v>
       </c>
@@ -1944,7 +1969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="16">
       <c r="A15" s="1" t="s">
         <v>96</v>
       </c>
@@ -2003,7 +2028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="16">
       <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
@@ -2062,7 +2087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="16">
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
@@ -2121,7 +2146,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" ht="16">
       <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
@@ -2180,7 +2205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" ht="16">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
@@ -2239,7 +2264,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" ht="16">
       <c r="A20" s="1" t="s">
         <v>123</v>
       </c>
@@ -2298,7 +2323,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" ht="16">
       <c r="A21" s="1" t="s">
         <v>130</v>
       </c>
@@ -2357,7 +2382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" ht="16">
       <c r="A22" s="1" t="s">
         <v>135</v>
       </c>
@@ -2416,7 +2441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" ht="16">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -2475,7 +2500,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" ht="16">
       <c r="A24" s="1" t="s">
         <v>147</v>
       </c>
@@ -2534,7 +2559,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" ht="16">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
@@ -2593,7 +2618,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" ht="16">
       <c r="A26" s="1" t="s">
         <v>155</v>
       </c>
@@ -2708,7 +2733,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" ht="16">
       <c r="A28" s="1" t="s">
         <v>166</v>
       </c>
@@ -2767,7 +2792,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="16">
       <c r="A29" s="1" t="s">
         <v>172</v>
       </c>
@@ -2826,7 +2851,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" ht="16">
       <c r="A30" s="1" t="s">
         <v>155</v>
       </c>
@@ -2885,7 +2910,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" ht="16">
       <c r="A31" s="1" t="s">
         <v>178</v>
       </c>
@@ -2944,7 +2969,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" ht="16">
       <c r="A32" s="1" t="s">
         <v>186</v>
       </c>
@@ -3003,7 +3028,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" ht="16">
       <c r="A33" s="1" t="s">
         <v>193</v>
       </c>
@@ -3062,7 +3087,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" ht="16">
       <c r="A34" s="1" t="s">
         <v>198</v>
       </c>
@@ -3118,7 +3143,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" ht="16">
       <c r="A35" s="1" t="s">
         <v>203</v>
       </c>
@@ -3177,7 +3202,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" ht="16">
       <c r="A36" s="1" t="s">
         <v>211</v>
       </c>
@@ -3236,7 +3261,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" ht="16">
       <c r="A37" s="1" t="s">
         <v>216</v>
       </c>
@@ -3295,7 +3320,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" ht="16">
       <c r="A38" s="1" t="s">
         <v>222</v>
       </c>
@@ -3403,22 +3428,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1">
+      <c r="A6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/20160616-eat_duluth/builds/development/data/maindata.xlsx
+++ b/20160616-eat_duluth/builds/development/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="460" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2240" yWindow="460" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="places" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="253">
   <si>
     <t>name</t>
   </si>
@@ -722,13 +723,70 @@
   </si>
   <si>
     <t>Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>Restaurant name</t>
+  </si>
+  <si>
+    <t>Restaurant address</t>
+  </si>
+  <si>
+    <t>Restaurant city</t>
+  </si>
+  <si>
+    <t>Restaurant state</t>
+  </si>
+  <si>
+    <t>Restaurant phone number</t>
+  </si>
+  <si>
+    <t>Restaurant website</t>
+  </si>
+  <si>
+    <t>Area of city restaurant is located in</t>
+  </si>
+  <si>
+    <t>Latitude coordinate</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
+  </si>
+  <si>
+    <t>Review of restaurant</t>
+  </si>
+  <si>
+    <t>Is it family-friendly?</t>
+  </si>
+  <si>
+    <t>Is it cheap?</t>
+  </si>
+  <si>
+    <t>Does it have a patio?</t>
+  </si>
+  <si>
+    <t>Does it serve brunch?</t>
+  </si>
+  <si>
+    <t>Is it open late?</t>
+  </si>
+  <si>
+    <t>Does it have sweets?</t>
+  </si>
+  <si>
+    <t>Does it serve cocktails?</t>
+  </si>
+  <si>
+    <t>Does it serve beer?</t>
+  </si>
+  <si>
+    <t>Restaurant hours of operation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -763,6 +821,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -781,8 +845,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -793,7 +859,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1127,7 +1195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3418,6 +3486,7 @@
     <hyperlink ref="F38" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3430,8 +3499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3473,6 +3542,184 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
